--- a/Ciudades.xlsx
+++ b/Ciudades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ELECTROCENTRO\5ESTABLECER CONECTIVIDAD\DASHBOARD\3-DASHBOARD\__Date__\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076C710D-3AEF-4CC9-8ADC-E9593172073B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D1FA12-25AF-4162-849D-5C7DEE326ECB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Latitud</t>
-  </si>
-  <si>
-    <t>Longitud</t>
-  </si>
-  <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
     <t>blue</t>
   </si>
   <si>
@@ -46,9 +34,6 @@
     <t>purple</t>
   </si>
   <si>
-    <t>yellow</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -61,16 +46,31 @@
     <t>HUANCAVELICA</t>
   </si>
   <si>
-    <t>HUÁNUCO</t>
-  </si>
-  <si>
     <t>JUNIN</t>
   </si>
   <si>
     <t>PASCO</t>
   </si>
   <si>
-    <t>UCAYALI</t>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>LATITUD</t>
+  </si>
+  <si>
+    <t>LONGITUD</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>HUANUCO</t>
+  </si>
+  <si>
+    <t>SAN MARTIN</t>
+  </si>
+  <si>
+    <t>pink</t>
   </si>
 </sst>
 </file>
@@ -920,31 +920,31 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>-13.158099999999999</v>
@@ -953,12 +953,12 @@
         <v>-74.2239</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>-12.7875</v>
@@ -967,12 +967,12 @@
         <v>-74.974999999999994</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>-9.9306000000000001</v>
@@ -981,12 +981,12 @@
         <v>-76.242199999999997</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>-11.157400000000001</v>
@@ -995,12 +995,12 @@
         <v>-75.994100000000003</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>-10.6837</v>
@@ -1009,21 +1009,21 @@
         <v>-76.256699999999995</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>-8.3792000000000009</v>
+        <v>-6.51389</v>
       </c>
       <c r="C7" s="1">
-        <v>-74.553899999999999</v>
+        <v>-76.740799999999993</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
